--- a/kleine todo's.xlsx
+++ b/kleine todo's.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>TODO</t>
   </si>
@@ -120,6 +120,12 @@
       </rPr>
       <t xml:space="preserve"> ergänzen) </t>
     </r>
+  </si>
+  <si>
+    <t>rm dublicate in Wiki</t>
+  </si>
+  <si>
+    <t>WikiStageController und WikiStageView implements Run through all wiki-characters twice</t>
   </si>
 </sst>
 </file>
@@ -489,7 +495,7 @@
   <dimension ref="B2:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -586,10 +592,16 @@
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+    <row r="9" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
